--- a/INTLINE/data/566/PHSA/General Retail Price Index in the National Capital Region.xlsx
+++ b/INTLINE/data/566/PHSA/General Retail Price Index in the National Capital Region.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
-    <x:t>General Retail Price Index in the National Capital Region (2012=100) : January 2012 - January 2022</x:t>
+    <x:t>General Retail Price Index in the National Capital Region (2012=100) : January 2012 - February 2022</x:t>
   </x:si>
   <x:si>
     <x:t>2012</x:t>
@@ -127,7 +127,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220516 09:00</x:t>
+    <x:t>20220530 09:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -573,8 +573,7 @@
   <x:cols>
     <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
     <x:col min="3" max="9" width="11.550625" style="0" customWidth="1"/>
-    <x:col min="10" max="133" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="134" max="134" width="6.270625" style="0" customWidth="1"/>
+    <x:col min="10" max="134" width="12.550625" style="0" customWidth="1"/>
     <x:col min="135" max="135" width="6.550625" style="0" customWidth="1"/>
     <x:col min="136" max="136" width="6.130625" style="0" customWidth="1"/>
     <x:col min="137" max="137" width="6.840625" style="0" customWidth="1"/>
@@ -1459,8 +1458,8 @@
       <x:c r="EC5" s="3" t="n">
         <x:v>118.2</x:v>
       </x:c>
-      <x:c r="ED5" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED5" s="3" t="n">
+        <x:v>118.6</x:v>
       </x:c>
       <x:c r="EE5" s="4" t="s">
         <x:v>27</x:v>
@@ -1893,8 +1892,8 @@
       <x:c r="EC6" s="3" t="n">
         <x:v>127.8</x:v>
       </x:c>
-      <x:c r="ED6" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED6" s="3" t="n">
+        <x:v>128.1</x:v>
       </x:c>
       <x:c r="EE6" s="4" t="s">
         <x:v>27</x:v>
@@ -2327,8 +2326,8 @@
       <x:c r="EC7" s="3" t="n">
         <x:v>162.6</x:v>
       </x:c>
-      <x:c r="ED7" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED7" s="3" t="n">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="EE7" s="4" t="s">
         <x:v>27</x:v>
@@ -2761,8 +2760,8 @@
       <x:c r="EC8" s="3" t="n">
         <x:v>117.1</x:v>
       </x:c>
-      <x:c r="ED8" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED8" s="3" t="n">
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="EE8" s="4" t="s">
         <x:v>27</x:v>
@@ -3195,8 +3194,8 @@
       <x:c r="EC9" s="3" t="n">
         <x:v>111.7</x:v>
       </x:c>
-      <x:c r="ED9" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED9" s="3" t="n">
+        <x:v>116.6</x:v>
       </x:c>
       <x:c r="EE9" s="4" t="s">
         <x:v>27</x:v>
@@ -3629,8 +3628,8 @@
       <x:c r="EC10" s="3" t="n">
         <x:v>113.1</x:v>
       </x:c>
-      <x:c r="ED10" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED10" s="3" t="n">
+        <x:v>113.1</x:v>
       </x:c>
       <x:c r="EE10" s="4" t="s">
         <x:v>27</x:v>
@@ -4063,8 +4062,8 @@
       <x:c r="EC11" s="3" t="n">
         <x:v>114.3</x:v>
       </x:c>
-      <x:c r="ED11" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED11" s="3" t="n">
+        <x:v>114.5</x:v>
       </x:c>
       <x:c r="EE11" s="4" t="s">
         <x:v>27</x:v>
@@ -4497,8 +4496,8 @@
       <x:c r="EC12" s="3" t="n">
         <x:v>102.8</x:v>
       </x:c>
-      <x:c r="ED12" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED12" s="3" t="n">
+        <x:v>102.8</x:v>
       </x:c>
       <x:c r="EE12" s="4" t="s">
         <x:v>27</x:v>
@@ -4931,8 +4930,8 @@
       <x:c r="EC13" s="3" t="n">
         <x:v>110.9</x:v>
       </x:c>
-      <x:c r="ED13" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="ED13" s="3" t="n">
+        <x:v>111</x:v>
       </x:c>
       <x:c r="EE13" s="4" t="s">
         <x:v>27</x:v>
